--- a/pa7/pa7.xlsx
+++ b/pa7/pa7.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="30" windowWidth="9555" windowHeight="5700"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="31">
   <si>
     <t>car</t>
   </si>
@@ -76,12 +76,45 @@
   </si>
   <si>
     <t>R</t>
+  </si>
+  <si>
+    <t>tf-idf</t>
+  </si>
+  <si>
+    <t>dawn</t>
+  </si>
+  <si>
+    <t>bea</t>
+  </si>
+  <si>
+    <t>she</t>
+  </si>
+  <si>
+    <t>rege</t>
+  </si>
+  <si>
+    <t>happ</t>
+  </si>
+  <si>
+    <t>surpr</t>
+  </si>
+  <si>
+    <t>fam</t>
+  </si>
+  <si>
+    <t>adve</t>
+  </si>
+  <si>
+    <t>square(tf-idf)</t>
+  </si>
+  <si>
+    <t>normalized(tf-idf)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -107,7 +140,7 @@
       <name val="Inherit"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -117,6 +150,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -142,7 +181,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
@@ -155,6 +194,12 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
@@ -246,7 +291,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -281,7 +325,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -457,11 +500,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -469,7 +512,7 @@
     <col min="2" max="2" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1">
       <c r="C1" t="s">
         <v>4</v>
       </c>
@@ -480,7 +523,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="18.75" thickBot="1">
+    <row r="2" spans="1:7" ht="18.75" thickBot="1">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -497,7 +540,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="18.75" thickBot="1">
+    <row r="3" spans="1:7" ht="18.75" thickBot="1">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -514,7 +557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="29.25" thickBot="1">
+    <row r="4" spans="1:7" ht="29.25" thickBot="1">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -531,7 +574,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="18">
+    <row r="5" spans="1:7" ht="18">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -548,16 +591,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7">
       <c r="B6" s="4">
-        <f>SUM(B2:B5)</f>
-        <v>69364</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>806791</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="B8">
         <f>LOG(B6/B2)</f>
-        <v>0.5818987273651226</v>
+        <v>1.6475256426814364</v>
       </c>
       <c r="C8">
         <f>1+LOG(C2,10)</f>
@@ -572,10 +614,10 @@
         <v>2.3802112417116059</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:7">
       <c r="B9">
         <f>LOG(B6/B3)</f>
-        <v>1.0135710183091324</v>
+        <v>2.079197933625446</v>
       </c>
       <c r="C9">
         <f t="shared" ref="C9:C11" si="1">1+LOG(C3,10)</f>
@@ -583,16 +625,16 @@
       </c>
       <c r="D9">
         <f>ROUND((1+LOG(D3,10))*B9,3)</f>
-        <v>2.5529999999999999</v>
+        <v>5.2359999999999998</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:7">
       <c r="B10">
-        <f>LOG(B6/B4)</f>
-        <v>0.55690648997037506</v>
+        <f>LOG(B6/B4,10)</f>
+        <v>1.6225334052866887</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -605,11 +647,15 @@
         <f t="shared" si="2"/>
         <v>2.4623979978989561</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10">
+        <f>D10*B10</f>
+        <v>4.2040888801565215</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="B11">
         <f>LOG(B6/B5)</f>
-        <v>0.43913082049415136</v>
+        <v>1.5047577358104651</v>
       </c>
       <c r="C11">
         <f t="shared" si="1"/>
@@ -623,106 +669,106 @@
         <v>2.2304489213782741</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" thickBot="1"/>
-    <row r="14" spans="1:6" ht="45.75" thickBot="1">
+    <row r="13" spans="1:7" ht="15.75" thickBot="1"/>
+    <row r="14" spans="1:7" ht="45.75" thickBot="1">
       <c r="A14" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="29.25" thickBot="1">
+    <row r="15" spans="1:7" ht="29.25" thickBot="1">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B15" s="1">
         <v>37</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="7">
         <v>30</v>
       </c>
       <c r="D15" s="1">
         <v>0</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="7">
         <v>3</v>
       </c>
       <c r="F15">
-        <f>LOG(4,10)</f>
-        <v>0.60205999132796229</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="29.25" thickBot="1">
+        <f>LOG(4/3,10)</f>
+        <v>0.12493873660829991</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="29.25" thickBot="1">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B16" s="1">
         <v>40</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="7">
         <v>10</v>
       </c>
       <c r="D16" s="1">
         <v>6</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="7">
         <v>0</v>
       </c>
       <c r="F16">
-        <f t="shared" ref="F16:F18" si="3">LOG(4,10)</f>
-        <v>0.60205999132796229</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="15.75" thickBot="1">
+        <f>LOG(4/3,10)</f>
+        <v>0.12493873660829991</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="15.75" thickBot="1">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B17" s="1">
         <v>31</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="7">
         <v>0</v>
       </c>
       <c r="D17" s="1">
         <v>12</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="7">
         <v>17</v>
       </c>
       <c r="F17">
-        <f t="shared" si="3"/>
-        <v>0.60205999132796229</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="28.5">
+        <f>LOG(4/3,10)</f>
+        <v>0.12493873660829991</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="28.5">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B18" s="1">
         <v>0</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="7">
         <v>5</v>
       </c>
       <c r="D18" s="1">
         <v>13</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="7">
         <v>0</v>
       </c>
       <c r="F18">
-        <f t="shared" si="3"/>
-        <v>0.60205999132796229</v>
+        <f>LOG(4/2,10)</f>
+        <v>0.30102999566398114</v>
       </c>
       <c r="I18" t="s">
         <v>19</v>
@@ -730,8 +776,14 @@
       <c r="J18" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="M18" t="s">
+        <v>19</v>
+      </c>
+      <c r="N18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="H19" t="s">
         <v>16</v>
       </c>
@@ -741,8 +793,17 @@
       <c r="J19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="L19" t="s">
+        <v>17</v>
+      </c>
+      <c r="M19">
+        <v>0.1</v>
+      </c>
+      <c r="O19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="H20" t="s">
         <v>16</v>
       </c>
@@ -752,8 +813,17 @@
       <c r="J20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:10">
+      <c r="L20" t="s">
+        <v>17</v>
+      </c>
+      <c r="M20">
+        <v>0.2</v>
+      </c>
+      <c r="O20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="H21" t="s">
         <v>16</v>
       </c>
@@ -763,8 +833,17 @@
       <c r="J21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:10">
+      <c r="L21" t="s">
+        <v>17</v>
+      </c>
+      <c r="M21">
+        <v>0.3</v>
+      </c>
+      <c r="O21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="H22" t="s">
         <v>16</v>
       </c>
@@ -774,34 +853,78 @@
       <c r="J22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:10">
+      <c r="L22" t="s">
+        <v>16</v>
+      </c>
+      <c r="M22">
+        <v>0.4</v>
+      </c>
+      <c r="N22">
+        <f>1/O22</f>
+        <v>0.25</v>
+      </c>
+      <c r="O22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" t="s">
+        <v>24</v>
+      </c>
       <c r="H23" t="s">
         <v>17</v>
       </c>
       <c r="I23">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="24" spans="1:10">
+      <c r="L23" t="s">
+        <v>16</v>
+      </c>
+      <c r="M23">
+        <v>0.4</v>
+      </c>
+      <c r="N23">
+        <f>2/O23</f>
+        <v>0.4</v>
+      </c>
+      <c r="O23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
       <c r="B24">
         <f>(LOG(B15,10)+1)*F24</f>
-        <v>1.5462115077202327</v>
+        <v>0.32086787876018802</v>
       </c>
       <c r="C24">
         <f>(LOG(C15,10)+1)*F24</f>
-        <v>1.4913756011348311</v>
+        <v>0.3094883999902413</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <f t="shared" ref="C24:E24" si="4">LOG(E15,10)+1</f>
-        <v>1.4771212547196624</v>
+        <f>(LOG(E15,10)+1)*F24</f>
+        <v>0.18454966338194137</v>
       </c>
       <c r="F24">
-        <f>LOG(4,10)</f>
-        <v>0.60205999132796229</v>
+        <f>LOG(4/3,10)</f>
+        <v>0.12493873660829991</v>
       </c>
       <c r="H24" t="s">
         <v>17</v>
@@ -809,26 +932,38 @@
       <c r="I24">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="25" spans="1:10">
+      <c r="L24" t="s">
+        <v>17</v>
+      </c>
+      <c r="M24">
+        <v>0.4</v>
+      </c>
+      <c r="O24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
       <c r="B25">
-        <f t="shared" ref="B25:B27" si="5">(LOG(B16,10)+1)*F25</f>
-        <v>1.5665962158137507</v>
+        <f t="shared" ref="B25:B26" si="3">(LOG(B16,10)+1)*F25</f>
+        <v>0.32509808789551942</v>
       </c>
       <c r="C25">
-        <f t="shared" ref="C25:C27" si="6">(LOG(C16,10)+1)*F25</f>
-        <v>1.2041199826559246</v>
+        <f t="shared" ref="C25:D27" si="4">(LOG(C16,10)+1)*F25</f>
+        <v>0.24987747321659981</v>
       </c>
       <c r="D25">
-        <f t="shared" ref="B25:E25" si="7">LOG(D16,10)+1</f>
-        <v>1.7781512503836434</v>
+        <f>(LOG(D16,10)+1)*F25</f>
+        <v>0.22215997072140117</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <f t="shared" ref="F25:F27" si="8">LOG(4,10)</f>
-        <v>0.60205999132796229</v>
+        <f>LOG(4/3,10)</f>
+        <v>0.12493873660829991</v>
       </c>
       <c r="H25" t="s">
         <v>17</v>
@@ -836,26 +971,42 @@
       <c r="I25">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="26" spans="1:10">
+      <c r="L25" t="s">
+        <v>16</v>
+      </c>
+      <c r="M25">
+        <v>0.4</v>
+      </c>
+      <c r="N25">
+        <f>3/O25</f>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="O25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
       <c r="B26">
-        <f t="shared" si="5"/>
-        <v>1.4999491997846797</v>
+        <f t="shared" si="3"/>
+        <v>0.31126758246196812</v>
       </c>
       <c r="C26">
         <v>0</v>
       </c>
       <c r="D26">
-        <f t="shared" ref="B26:E26" si="9">LOG(D17,10)+1</f>
-        <v>2.0791812460476247</v>
+        <f>(LOG(D17,10)+1)*F26</f>
+        <v>0.25977027806086095</v>
       </c>
       <c r="E26">
-        <f t="shared" si="9"/>
-        <v>2.2304489213782741</v>
+        <f t="shared" ref="E25:E27" si="5">(LOG(E17,10)+1)*F26</f>
+        <v>0.27866947030634681</v>
       </c>
       <c r="F26">
-        <f t="shared" si="8"/>
-        <v>0.60205999132796229</v>
+        <f>LOG(4/3,10)</f>
+        <v>0.12493873660829991</v>
       </c>
       <c r="H26" t="s">
         <v>17</v>
@@ -863,25 +1014,41 @@
       <c r="I26">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="27" spans="1:10">
+      <c r="L26" t="s">
+        <v>16</v>
+      </c>
+      <c r="M26">
+        <v>0.4</v>
+      </c>
+      <c r="N26">
+        <f>4/O26</f>
+        <v>0.5</v>
+      </c>
+      <c r="O26">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
       <c r="B27">
         <v>0</v>
       </c>
       <c r="C27">
-        <f t="shared" si="6"/>
-        <v>1.0228818660770116</v>
+        <f t="shared" si="4"/>
+        <v>0.5114409330385058</v>
       </c>
       <c r="D27">
-        <f t="shared" ref="B27:E27" si="10">LOG(D18,10)+1</f>
-        <v>2.1139433523068369</v>
+        <f>(LOG(D18,10)+1)*F27</f>
+        <v>0.63636035817882886</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27">
-        <f t="shared" si="8"/>
-        <v>0.60205999132796229</v>
+        <f>LOG(4/2,10)</f>
+        <v>0.30102999566398114</v>
       </c>
       <c r="H27" t="s">
         <v>17</v>
@@ -889,16 +1056,41 @@
       <c r="I27">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="28" spans="1:10">
+      <c r="L27" t="s">
+        <v>17</v>
+      </c>
+      <c r="M27">
+        <v>0.4</v>
+      </c>
+      <c r="O27">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
       <c r="H28" t="s">
         <v>17</v>
       </c>
       <c r="I28">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="29" spans="1:10">
+      <c r="L28" t="s">
+        <v>16</v>
+      </c>
+      <c r="M28">
+        <v>0.4</v>
+      </c>
+      <c r="N28">
+        <f>5/O28</f>
+        <v>0.5</v>
+      </c>
+      <c r="O28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
       <c r="H29" t="s">
         <v>16</v>
       </c>
@@ -909,23 +1101,36 @@
         <f>5/11</f>
         <v>0.45454545454545453</v>
       </c>
-    </row>
-    <row r="30" spans="1:10">
+      <c r="L29" t="s">
+        <v>16</v>
+      </c>
+      <c r="M29">
+        <v>0.5</v>
+      </c>
+      <c r="N29">
+        <f>6/O29</f>
+        <v>0.54545454545454541</v>
+      </c>
+      <c r="O29">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
       <c r="B30">
         <f>B24*B24</f>
-        <v>2.3907700266064755</v>
+        <v>0.10295619562006272</v>
       </c>
       <c r="C30">
-        <f t="shared" ref="C30:E30" si="11">C24*C24</f>
-        <v>2.2242011836602789</v>
+        <f t="shared" ref="C30:E30" si="6">C24*C24</f>
+        <v>9.578306972851959E-2</v>
       </c>
       <c r="D30">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E30">
-        <f t="shared" si="11"/>
-        <v>2.1818872011445896</v>
+        <f t="shared" si="6"/>
+        <v>3.4058578254387871E-2</v>
       </c>
       <c r="H30" t="s">
         <v>17</v>
@@ -933,22 +1138,31 @@
       <c r="I30">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="31" spans="1:10">
+      <c r="L30" t="s">
+        <v>17</v>
+      </c>
+      <c r="M30">
+        <v>0.5</v>
+      </c>
+      <c r="O30">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
       <c r="B31">
-        <f t="shared" ref="B31:E31" si="12">B25*B25</f>
-        <v>2.4542237034019641</v>
+        <f t="shared" ref="B31:E31" si="7">B25*B25</f>
+        <v>0.10568876675332287</v>
       </c>
       <c r="C31">
-        <f t="shared" si="12"/>
-        <v>1.449904932631304</v>
+        <f t="shared" si="7"/>
+        <v>6.2438751621112558E-2</v>
       </c>
       <c r="D31">
-        <f t="shared" si="12"/>
-        <v>3.1618218692409146</v>
+        <f t="shared" si="7"/>
+        <v>4.9355052590933826E-2</v>
       </c>
       <c r="E31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H31" t="s">
@@ -961,175 +1175,224 @@
         <f>6/13</f>
         <v>0.46153846153846156</v>
       </c>
-    </row>
-    <row r="32" spans="1:10">
+      <c r="L31" t="s">
+        <v>16</v>
+      </c>
+      <c r="M31">
+        <v>0.6</v>
+      </c>
+      <c r="N31">
+        <f>7/O31</f>
+        <v>0.53846153846153844</v>
+      </c>
+      <c r="O31">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
       <c r="B32">
-        <f t="shared" ref="B32:E32" si="13">B26*B26</f>
-        <v>2.2498476019347007</v>
+        <f t="shared" ref="B32:E32" si="8">B26*B26</f>
+        <v>9.6887507891718128E-2</v>
       </c>
       <c r="C32">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="D32">
-        <f t="shared" si="13"/>
-        <v>4.3229946539161528</v>
+        <f t="shared" si="8"/>
+        <v>6.7480597363817021E-2</v>
       </c>
       <c r="E32">
-        <f t="shared" si="13"/>
-        <v>4.9749023908775065</v>
+        <f t="shared" si="8"/>
+        <v>7.765667368081991E-2</v>
       </c>
       <c r="J32">
         <f>AVERAGE(J19:J31)</f>
         <v>0.8193473193473193</v>
       </c>
-    </row>
-    <row r="33" spans="2:5">
+      <c r="N32">
+        <f>AVERAGE(N19:N31)</f>
+        <v>0.45178393035535885</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="B33">
-        <f t="shared" ref="B33:E33" si="14">B27*B27</f>
+        <f t="shared" ref="B33:E33" si="9">B27*B27</f>
         <v>0</v>
       </c>
       <c r="C33">
-        <f t="shared" si="14"/>
-        <v>1.0462873119491896</v>
+        <f t="shared" si="9"/>
+        <v>0.26157182798729739</v>
       </c>
       <c r="D33">
-        <f t="shared" si="14"/>
-        <v>4.4687564967622677</v>
+        <f t="shared" si="9"/>
+        <v>0.40495450546148737</v>
       </c>
       <c r="E33">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="B34">
-        <f>SUM(B30:B33)</f>
-        <v>7.0948413319431403</v>
+        <f>SQRT(SUM(B30:B33))</f>
+        <v>0.5527499165672517</v>
       </c>
       <c r="C34">
-        <f t="shared" ref="C34:E34" si="15">SUM(C30:C33)</f>
-        <v>4.7203934282407722</v>
+        <f>SQRT(SUM(C30:C33))</f>
+        <v>0.64791484728853799</v>
       </c>
       <c r="D34">
-        <f t="shared" si="15"/>
-        <v>11.953573019919336</v>
+        <f t="shared" ref="D34:E34" si="10">SQRT(SUM(D30:D33))</f>
+        <v>0.72235043809513833</v>
       </c>
       <c r="E34">
-        <f t="shared" si="15"/>
-        <v>7.1567895920220961</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5">
+        <f t="shared" si="10"/>
+        <v>0.33423831607882387</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="B36">
-        <f>B30/B34</f>
-        <v>0.33697300823945131</v>
+        <f>B24/B34</f>
+        <v>0.58049376244663586</v>
       </c>
       <c r="C36">
-        <f t="shared" ref="C36:E36" si="16">C30/C34</f>
-        <v>0.47118978904459857</v>
+        <f>C24/C34</f>
+        <v>0.47766832522116265</v>
       </c>
       <c r="D36">
-        <f t="shared" si="16"/>
+        <f>D24/D34</f>
         <v>0</v>
       </c>
       <c r="E36">
-        <f t="shared" si="16"/>
-        <v>0.30486954703500146</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5">
+        <f>E24/E34</f>
+        <v>0.55214993166258886</v>
+      </c>
+      <c r="G36">
+        <f>C24*E24/(C34*E34)</f>
+        <v>0.26374453312824819</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="B37">
-        <f>B31/B34</f>
-        <v>0.34591664402025457</v>
+        <f>B25/B34</f>
+        <v>0.58814678781767948</v>
       </c>
       <c r="C37">
-        <f t="shared" ref="C37:E37" si="17">C31/C34</f>
-        <v>0.30715764579217802</v>
+        <f>C25/C34</f>
+        <v>0.38566406413175014</v>
       </c>
       <c r="D37">
-        <f t="shared" si="17"/>
-        <v>0.264508516739897</v>
+        <f>D25/D34</f>
+        <v>0.30755151378774581</v>
       </c>
       <c r="E37">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5">
+        <f>E25/E34</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="B38">
-        <f>B32/B34</f>
-        <v>0.31711034774029412</v>
+        <f>B26/B34</f>
+        <v>0.5631255168612892</v>
       </c>
       <c r="C38">
-        <f t="shared" ref="C38:E38" si="18">C32/C34</f>
+        <f>C26/C34</f>
         <v>0</v>
       </c>
       <c r="D38">
-        <f t="shared" si="18"/>
-        <v>0.36164874274096542</v>
+        <f>D26/D34</f>
+        <v>0.3596180805896424</v>
       </c>
       <c r="E38">
-        <f t="shared" si="18"/>
-        <v>0.69513045296499854</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5">
+        <f>E26/E34</f>
+        <v>0.83374483684458189</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="B39">
-        <f>B33/B34</f>
+        <f>B27/B34</f>
         <v>0</v>
       </c>
       <c r="C39">
-        <f t="shared" ref="C39:E39" si="19">C33/C34</f>
-        <v>0.22165256516322346</v>
+        <f>C27/C34</f>
+        <v>0.78936442833319453</v>
       </c>
       <c r="D39">
-        <f t="shared" si="19"/>
-        <v>0.37384274051913757</v>
+        <f>D27/D34</f>
+        <v>0.88095794592017118</v>
       </c>
       <c r="E39">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5">
+        <f>E27/E34</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="B41">
-        <f>B36*C36</f>
-        <v>0.15877824066607085</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5">
+        <f>C36*E36</f>
+        <v>0.26374453312824825</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="B42">
-        <f t="shared" ref="B42:B43" si="20">B37*C37</f>
-        <v>0.10625094201759229</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5">
+        <f t="shared" ref="B42:B44" si="11">C37*E37</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="B43">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="B44">
-        <f>B39*C39</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="B45">
         <f>SUM(B41:B44)</f>
-        <v>0.26502918268366316</v>
+        <v>0.26374453312824825</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52">
+        <v>0.38</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;CFor internal use only</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1137,11 +1400,15 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;CFor internal use only</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1149,5 +1416,9 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;CFor internal use only</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>